--- a/biology/Histoire de la zoologie et de la botanique/Charles_René_Augustin_Léclancher/Charles_René_Augustin_Léclancher.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Charles_René_Augustin_Léclancher/Charles_René_Augustin_Léclancher.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Charles_Ren%C3%A9_Augustin_L%C3%A9clancher</t>
+          <t>Charles_René_Augustin_Léclancher</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charles René Augustin Léclancher est un chirurgien de marine, né le 29 mars 1804 à Alexandrie (Piémont[1]) et mort le 7 avril 1857 à Cherbourg[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles René Augustin Léclancher est un chirurgien de marine, né le 29 mars 1804 à Alexandrie (Piémont) et mort le 7 avril 1857 à Cherbourg,.
 En service de 1828 à 1853, il participe à plusieurs missions dont celle de La Vénus commandée par Abel Aubert Du Petit-Thouars (1793–1864) et de La Favorite de 1841 à 1844 dans le golfe du Bengale. Il en rapporte 11 mammifères et 232 oiseaux. Il voyage aussi en Arabie et au Japon vers 1841. Il a été décoré de la Légion d'honneur.
 Deux espèces lui ont été dédiées : le passerin arc-en-ciel (Passerina leclancherii) par Frédéric de Lafresnaye (1783-1861) en 1840 et le ptilope de Leclancher (Ptilinopus leclancheri) par Charles-Lucien Bonaparte (1803-1857) en 1855.
 </t>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Charles_Ren%C3%A9_Augustin_L%C3%A9clancher</t>
+          <t>Charles_René_Augustin_Léclancher</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Bo Beolens et Michael Watkins (2003). Whose Bird? Common Bird Names and the People They Commemorate. Yale University Press (New Haven et Londres).
 Claire Voisin, Jean-François Voisin, Christian Jouanin et Roger Bour (2005). Liste des types d’oiseaux des collections du Muséum national d’histoire naturelle de Paris. 14 : Pigeons (Columbidae), deuxième partie. Zoosystema, 27 (4) : 839-866.</t>
